--- a/biology/Botanique/Stroma_(mycologie)/Stroma_(mycologie).xlsx
+++ b/biology/Botanique/Stroma_(mycologie)/Stroma_(mycologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un stroma est, chez les champignons ascomycètes, un organe formé d'un agglomérat d'hyphes non dicaryotiques dans lequel se réalise la sexualité et l'élaboration des organes de fructification (ascocarpes), qui vont se placer à sa surface et libérer des ascospores. Ce peut être également un organe support pour les conidiophores.
 </t>
